--- a/biology/Zoologie/Arbaciidae/Arbaciidae.xlsx
+++ b/biology/Zoologie/Arbaciidae/Arbaciidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arbaciidae forment une famille d'oursins (échinodermes) de l'ordre des Arbacioida.
 </t>
@@ -511,16 +523,18 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arbaciidae sont des oursins réguliers : ils sont de forme grossièrement sphérique, avec une bouche située au centre de la face inférieure (orale) et l'anus à l'opposé, au sommet du test (face aborale).
 Les piquants (« radioles »), articulés à leur base, sont disposés sur des tubercules non perforés et non crénulés.
 La mâchoire (« Lanterne d'Aristote ») est de type stirodonte, à dents carénées.
-Le péristome (zone charnue entourant la bouche) occupe les deux tiers de la face orale[2].
+Le péristome (zone charnue entourant la bouche) occupe les deux tiers de la face orale.
 Le disque apical est généralement dicyclique, continu, sans tubercules périanals mais pourvu de 4 ou 5 plaques en valves anales.
 Les ambulacres sont trigéminés (rarement, quadrigéminés), les paires de pores de la face aborale étant subgéminés (les podia en sont spécialisés pour la respiration)
-Les plaques sont composées d'une manière caractéristique, avec une plaque centrale portant un tubercule primaire, entourée de deux demi-plaques[3].
-Cette famille semble avoir émergé au début du Crétacé, et possède actuellement des représentants dans tous les principaux bassins océaniques du monde[3].
+Les plaques sont composées d'une manière caractéristique, avec une plaque centrale portant un tubercule primaire, entourée de deux demi-plaques.
+Cette famille semble avoir émergé au début du Crétacé, et possède actuellement des représentants dans tous les principaux bassins océaniques du monde.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arbacia lixula vivant, hors de l'eau
